--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -1391,27 +1391,18 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
-    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>1回投与量（体積）</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1426,23 +1417,6 @@
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]:doseQuantity</t>
-  </si>
-  <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>1回投与量（体積）</t>
-  </si>
-  <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
-【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1468,6 +1442,13 @@
     <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
@@ -1529,7 +1510,14 @@
     <t>rateQuantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1866,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL87"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10396,13 +10384,13 @@
         <v>446</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10439,14 +10427,16 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>444</v>
@@ -10458,28 +10448,26 @@
         <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10497,22 +10485,22 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10549,19 +10537,17 @@
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10570,26 +10556,28 @@
         <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>452</v>
+        <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>453</v>
+        <v>134</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10607,22 +10595,22 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10659,17 +10647,19 @@
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10678,27 +10668,27 @@
         <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>468</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>76</v>
@@ -10720,19 +10710,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10781,7 +10771,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -10790,27 +10780,27 @@
         <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>127</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>76</v>
@@ -10832,19 +10822,19 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -10893,7 +10883,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10902,28 +10892,26 @@
         <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>76</v>
       </c>
@@ -10944,19 +10932,19 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11005,7 +10993,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11014,24 +11002,24 @@
         <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>455</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11054,16 +11042,16 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>489</v>
@@ -11115,7 +11103,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11124,16 +11112,16 @@
         <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="86">
@@ -11164,7 +11152,7 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>491</v>
@@ -11173,10 +11161,10 @@
         <v>491</v>
       </c>
       <c r="N86" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11234,126 +11222,16 @@
         <v>83</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
